--- a/LSB/VIDALLON, KAREN N..xlsx
+++ b/LSB/VIDALLON, KAREN N..xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>PERIOD</t>
   </si>
@@ -567,6 +567,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,9 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,7 +1054,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1097,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1161,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1448,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1507,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1572,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1690,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1876,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1942,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2122,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2197,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2240,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2306,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2362,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2460,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2523,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2967,12 +2967,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,60 +2994,60 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3080,18 +3080,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="64">
+      <c r="A13" s="52">
         <v>44931</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -3266,8 +3266,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="42">
+        <v>44988</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="41"/>
       <c r="E15" s="10"/>
@@ -3278,12 +3282,20 @@
       </c>
       <c r="H15" s="41"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="12">
+        <v>1</v>
+      </c>
+      <c r="K15" s="51">
+        <v>44985</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="42">
+        <v>45002</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="41"/>
       <c r="E16" s="10"/>
@@ -3294,24 +3306,36 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="51">
+        <v>44998</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="42">
+        <v>47243</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="45"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="41"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="16"/>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="51">
+        <v>45048</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
@@ -3330,20 +3354,20 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H19" s="41"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="45"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>
@@ -5122,20 +5146,52 @@
       <c r="K130" s="21"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="45"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="41"/>
       <c r="E131" s="10"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="45"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="41"/>
       <c r="I131" s="10"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="16"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="21"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="42"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="41"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="21"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="43"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="45"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5201,17 +5257,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -5286,12 +5342,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">

--- a/LSB/VIDALLON, KAREN N..xlsx
+++ b/LSB/VIDALLON, KAREN N..xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>PERIOD</t>
   </si>
@@ -416,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,6 +605,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1054,7 +1057,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1100,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1164,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1224,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1290,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1353,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1451,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1510,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1575,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1618,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1693,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1879,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1942,7 +1945,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2003,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2069,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2125,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2200,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2243,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2309,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2365,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2463,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2526,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2969,10 +2972,10 @@
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,8 +3341,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="42">
+        <v>45083</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="41"/>
       <c r="E18" s="10"/>
@@ -3350,12 +3357,20 @@
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="51">
+        <v>45078</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="43">
+        <v>45082</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="44"/>
       <c r="D19" s="45"/>
       <c r="E19" s="10"/>
@@ -3366,8 +3381,12 @@
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="16"/>
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19" s="65">
+        <v>45082</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42"/>

--- a/LSB/VIDALLON, KAREN N..xlsx
+++ b/LSB/VIDALLON, KAREN N..xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\LSB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\LSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>PERIOD</t>
   </si>
@@ -570,6 +570,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,9 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,7 +1057,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,7 +1100,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1164,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1224,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1451,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1510,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1575,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1618,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1693,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1945,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2003,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2125,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2200,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2243,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2309,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2365,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2463,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2975,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="M7" sqref="M7"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,60 +2997,60 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3083,18 +3083,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3384,13 +3384,17 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="65">
+      <c r="K19" s="53">
         <v>45082</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="42">
+        <v>45108</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="41"/>
       <c r="E20" s="10"/>
@@ -3401,8 +3405,12 @@
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="51">
+        <v>45121</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
@@ -5276,17 +5284,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -5361,12 +5369,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
